--- a/heima_notes.xlsx
+++ b/heima_notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunxie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunxie/Documents/github/Knowledge_WareHouse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777BBBD4-05D6-3043-A795-E66DDC2C0BC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497E9102-5950-1241-BF4B-B197074848B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="580" windowWidth="24400" windowHeight="15000" xr2:uid="{DB4E50C3-24C9-3D49-BCDC-8D37EF900FF2}"/>
+    <workbookView xWindow="7120" yWindow="740" windowWidth="24400" windowHeight="15000" xr2:uid="{DB4E50C3-24C9-3D49-BCDC-8D37EF900FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="02HTML" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,428 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
+  <si>
+    <t>案例驱动型</t>
+  </si>
+  <si>
+    <t>HTML: 超文本标记语言</t>
+  </si>
+  <si>
+    <t>Hyper Text Markup Language</t>
+  </si>
+  <si>
+    <t>标记语言：通过一组标签来对内容进行描述 &lt;关键字&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;! DOCTYPE html&gt; </t>
+  </si>
+  <si>
+    <t>文档声明</t>
+  </si>
+  <si>
+    <t>&lt;html&gt; &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 根标签</t>
+  </si>
+  <si>
+    <t>&lt;h1-6&gt; &lt;/h1-6&gt;</t>
+  </si>
+  <si>
+    <t>标题标签</t>
+  </si>
+  <si>
+    <t>水平分割线</t>
+  </si>
+  <si>
+    <t>&lt;hr /&gt;</t>
+  </si>
+  <si>
+    <t>font 标签</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>换行</t>
+  </si>
+  <si>
+    <t>&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>字体</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>大小 1-7</t>
+  </si>
+  <si>
+    <t>斜体</t>
+  </si>
+  <si>
+    <t>&lt;i&gt; &lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>加粗</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>斜体，带语义</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;em&gt; &lt;/em&gt;</t>
+  </si>
+  <si>
+    <t>加粗，带语义</t>
+  </si>
+  <si>
+    <t>&lt;Strong&gt; &lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>img 图片</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>指定文件路径</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>图片加载失败时的提示内容</t>
+  </si>
+  <si>
+    <t>相对路径</t>
+  </si>
+  <si>
+    <t>./</t>
+  </si>
+  <si>
+    <t>../</t>
+  </si>
+  <si>
+    <t>../../</t>
+  </si>
+  <si>
+    <t>上上级路径</t>
+  </si>
+  <si>
+    <t>上一级路径</t>
+  </si>
+  <si>
+    <t>当前路径</t>
+  </si>
+  <si>
+    <t>列表标签</t>
+  </si>
+  <si>
+    <t>ul 无序列表</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>小圆圈，小圆点，小方块</t>
+  </si>
+  <si>
+    <t>ol 有序列表</t>
+  </si>
+  <si>
+    <t>type：</t>
+  </si>
+  <si>
+    <t>1, a, A, I</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>指定起始索引</t>
+  </si>
+  <si>
+    <t>a 超链接</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>指定要跳转的链接地址</t>
+  </si>
+  <si>
+    <t>如果是网络地址需要加上http协议</t>
+  </si>
+  <si>
+    <t>如果访问的是本网站的html文件,可以直接写文件路径</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>以什么方式打开</t>
+  </si>
+  <si>
+    <t>_self: 默认打开方式,在当前窗口打开</t>
+  </si>
+  <si>
+    <t>_blank: 新起一个标签页打开页面</t>
+  </si>
+  <si>
+    <t>li 列表项</t>
+  </si>
+  <si>
+    <t>table标签</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>指定边框</t>
+  </si>
+  <si>
+    <t>宽度</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>bgcolor</t>
+  </si>
+  <si>
+    <t>背景颜色</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>对齐方式</t>
+  </si>
+  <si>
+    <t>colspan</t>
+  </si>
+  <si>
+    <t>跨列操作</t>
+  </si>
+  <si>
+    <t>rowspan</t>
+  </si>
+  <si>
+    <t>跨行操作</t>
+  </si>
+  <si>
+    <t>单元格合并</t>
+  </si>
+  <si>
+    <t>表格的嵌套</t>
+  </si>
+  <si>
+    <t>*跨行跨列之后，被挤占的格子需要删除掉</t>
+  </si>
+  <si>
+    <t>tr 行标签</t>
+  </si>
+  <si>
+    <t>td 列标签</t>
+  </si>
+  <si>
+    <t>*一定要行在外列在内</t>
+  </si>
+  <si>
+    <t>form表单标签</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>直接提交的地址</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>默认提交，将参数拼接在链接后面，4k之内</t>
+  </si>
+  <si>
+    <t>将参数封装在请求体中，没有大小限制</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>type：指定输入项</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>密码框</t>
+  </si>
+  <si>
+    <t>单选按钮</t>
+  </si>
+  <si>
+    <t>复选框</t>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>提交按钮</t>
+  </si>
+  <si>
+    <t>普通按钮</t>
+  </si>
+  <si>
+    <t>重置按钮</t>
+  </si>
+  <si>
+    <t>隐藏域</t>
+  </si>
+  <si>
+    <t>日期类型</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>只允许输入数字</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>指定默认的提示信息</t>
+  </si>
+  <si>
+    <t>在表单提交的时候,当作参数的名称</t>
+  </si>
+  <si>
+    <t>给输入项取一个名字, 以便于后期我们去找到它,并且操作它</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>文本域, 可以输入一段文本</t>
+  </si>
+  <si>
+    <t>cols</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>指定高度</t>
+  </si>
+  <si>
+    <t>指定宽度</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>下拉列表</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>选择项</t>
+  </si>
+  <si>
+    <t>frameset 框架标签</t>
+  </si>
+  <si>
+    <t>*必须将body删掉</t>
+  </si>
+  <si>
+    <t>引入html文件路径</t>
+  </si>
+  <si>
+    <t>指定框架的名称</t>
+  </si>
+  <si>
+    <t>按行</t>
+  </si>
+  <si>
+    <t>按列</t>
+  </si>
+  <si>
+    <t>相互嵌套</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61,8 +483,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,14 +803,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDBAD9E-1A84-FB4B-BE4F-888914026B0E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>116</v>
+      </c>
+      <c r="E84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>124</v>
+      </c>
+      <c r="D102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/heima_notes.xlsx
+++ b/heima_notes.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunxie/Documents/github/Knowledge_WareHouse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497E9102-5950-1241-BF4B-B197074848B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F8A85F-DDC2-954A-A02B-C630BD9DB16A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="740" windowWidth="24400" windowHeight="15000" xr2:uid="{DB4E50C3-24C9-3D49-BCDC-8D37EF900FF2}"/>
+    <workbookView xWindow="960" yWindow="800" windowWidth="24400" windowHeight="15000" activeTab="4" xr2:uid="{DB4E50C3-24C9-3D49-BCDC-8D37EF900FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="02HTML" sheetId="1" r:id="rId1"/>
+    <sheet name="03CSS" sheetId="2" r:id="rId2"/>
+    <sheet name="04JS" sheetId="3" r:id="rId3"/>
+    <sheet name="05JQuery" sheetId="4" r:id="rId4"/>
+    <sheet name="08JDBC" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="250">
   <si>
     <t>案例驱动型</t>
   </si>
@@ -448,14 +452,355 @@
   </si>
   <si>
     <t>相互嵌套</t>
+  </si>
+  <si>
+    <t>使用div和css来优化布局</t>
+  </si>
+  <si>
+    <t>HTML的块标签</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>默认占一行，自动换行</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>内容显示在一行</t>
+  </si>
+  <si>
+    <t>CSS Cascading Style Sheets 层叠样式表</t>
+  </si>
+  <si>
+    <t>简单语法</t>
+  </si>
+  <si>
+    <t>元素选择器</t>
+  </si>
+  <si>
+    <t>ID选择器</t>
+  </si>
+  <si>
+    <t>类选择器</t>
+  </si>
+  <si>
+    <t>元素名称</t>
+  </si>
+  <si>
+    <t>#开头，ID在整个页面必须是唯一的</t>
+  </si>
+  <si>
+    <t>.开头，类class名称</t>
+  </si>
+  <si>
+    <t>CSS的引入方式</t>
+  </si>
+  <si>
+    <t>外部样式</t>
+  </si>
+  <si>
+    <t>内部样式</t>
+  </si>
+  <si>
+    <t>行内样式</t>
+  </si>
+  <si>
+    <t>通过link标签引入一个外部css文件</t>
+  </si>
+  <si>
+    <t>直接在style标签内编写css代码</t>
+  </si>
+  <si>
+    <t>直接在标签中添加一个style属性，编写css代码</t>
+  </si>
+  <si>
+    <t>css浮动：</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>两边都不允许浮动</t>
+  </si>
+  <si>
+    <t>左边不允许</t>
+  </si>
+  <si>
+    <t>右边不允许浮动</t>
+  </si>
+  <si>
+    <t>流式布局</t>
+  </si>
+  <si>
+    <t>选择器分组</t>
+  </si>
+  <si>
+    <t>属性选择器</t>
+  </si>
+  <si>
+    <t>后代选择器</t>
+  </si>
+  <si>
+    <t>子元素选择器</t>
+  </si>
+  <si>
+    <t>伪类选择器</t>
+  </si>
+  <si>
+    <t>爷爷选择器  孙子选择器</t>
+  </si>
+  <si>
+    <t>父选择器 &gt;  儿子选择器</t>
+  </si>
+  <si>
+    <t>a[title = 'aaa'][href]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 选择器1,选择器2{ 属性的名称:属性的值}</t>
+  </si>
+  <si>
+    <t>CSS盒子模型：</t>
+  </si>
+  <si>
+    <t>padding-top</t>
+  </si>
+  <si>
+    <t>padding-right</t>
+  </si>
+  <si>
+    <t>padding-bottom</t>
+  </si>
+  <si>
+    <t>padding-left</t>
+  </si>
+  <si>
+    <t>内边距</t>
+  </si>
+  <si>
+    <t>外边距</t>
+  </si>
+  <si>
+    <t>margin-top</t>
+  </si>
+  <si>
+    <t>margin-right</t>
+  </si>
+  <si>
+    <t>margin-bottom</t>
+  </si>
+  <si>
+    <t>margin-left</t>
+  </si>
+  <si>
+    <t>padding:10px;  上下左右都是10px</t>
+  </si>
+  <si>
+    <t>padding:10px 20px;  上下是10px 左右是20px</t>
+  </si>
+  <si>
+    <t>padding: 10px 20px 30px;  上 10px 右20px  下30px  左20px</t>
+  </si>
+  <si>
+    <t>padding: 10px 20px 30px 40px;  上右下左, 顺时针的方向</t>
+  </si>
+  <si>
+    <t>CSS 绝对定位</t>
+  </si>
+  <si>
+    <t>position: absolute</t>
+  </si>
+  <si>
+    <t>top: 控制距离顶部的位置</t>
+  </si>
+  <si>
+    <t>left: 控制距离左边的位置</t>
+  </si>
+  <si>
+    <t>基本类型</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>undefine</t>
+  </si>
+  <si>
+    <t>unll</t>
+  </si>
+  <si>
+    <t>引用类型</t>
+  </si>
+  <si>
+    <t>对象，内置对象</t>
+  </si>
+  <si>
+    <t>类型转换</t>
+  </si>
+  <si>
+    <t>js内部自动转换</t>
+  </si>
+  <si>
+    <t>运算符和语句</t>
+  </si>
+  <si>
+    <t>‘===</t>
+  </si>
+  <si>
+    <t>值和类型都必须相等</t>
+  </si>
+  <si>
+    <t>‘==</t>
+  </si>
+  <si>
+    <t>值相等就可以了</t>
+  </si>
+  <si>
+    <t>语句和java一样</t>
+  </si>
+  <si>
+    <t>js输出</t>
+  </si>
+  <si>
+    <t>alert（）</t>
+  </si>
+  <si>
+    <t>直接弹窗</t>
+  </si>
+  <si>
+    <t>document.write（）</t>
+  </si>
+  <si>
+    <t>向页面输出</t>
+  </si>
+  <si>
+    <t>console.log()</t>
+  </si>
+  <si>
+    <t>向控制台输出</t>
+  </si>
+  <si>
+    <t>innerHTML</t>
+  </si>
+  <si>
+    <t>获取页面元素: document.getElementById("id的名称");</t>
+  </si>
+  <si>
+    <t>var 变量名称 = 变量的值</t>
+  </si>
+  <si>
+    <t>确定事件</t>
+  </si>
+  <si>
+    <t>事件触发函数</t>
+  </si>
+  <si>
+    <t>函数操作页面元素，做交互动作</t>
+  </si>
+  <si>
+    <t>JS开发步骤</t>
+  </si>
+  <si>
+    <t>向页面输出 可以直接写html代码</t>
+  </si>
+  <si>
+    <t>innerText()</t>
+  </si>
+  <si>
+    <t>向页面输出 文本</t>
+  </si>
+  <si>
+    <t>定时器</t>
+  </si>
+  <si>
+    <t>setInterval</t>
+  </si>
+  <si>
+    <t>setTimeout</t>
+  </si>
+  <si>
+    <t>clearInterval</t>
+  </si>
+  <si>
+    <t>clearTimeout</t>
+  </si>
+  <si>
+    <t>显示 &amp; 隐藏</t>
+  </si>
+  <si>
+    <t>*注意文档加载顺序</t>
+  </si>
+  <si>
+    <t>style.display = "none"  |  "block"</t>
+  </si>
+  <si>
+    <t>JS常用事件</t>
+  </si>
+  <si>
+    <t>onfocus</t>
+  </si>
+  <si>
+    <t>onblur</t>
+  </si>
+  <si>
+    <t>onkeyup</t>
+  </si>
+  <si>
+    <t>获得焦点</t>
+  </si>
+  <si>
+    <t>失去焦点</t>
+  </si>
+  <si>
+    <t>按键抬起</t>
+  </si>
+  <si>
+    <t>JDBC: JAVA DataBase Connectivity 数据库连接： 一种数据库访问规则</t>
+  </si>
+  <si>
+    <t>MySql</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>SqlServer</t>
+  </si>
+  <si>
+    <t>看代码</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -483,12 +828,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,6 +851,237 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>810846</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1778820" cy="1334981"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C9ED0E-7F6D-1E42-84B5-FA24A18B813A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1641231" y="1787769"/>
+          <a:ext cx="1778820" cy="1334981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;style&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>选择器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        属性名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：属性的值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        属性名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 属性的值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;/style&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>775677</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>150446</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1879810" cy="748666"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7373D4CC-1A51-4E47-9355-B6E277ECFC9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="775677" y="5279292"/>
+          <a:ext cx="1879810" cy="748666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>var  函数名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>function() {</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>funciton 函数名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>{  }</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDBAD9E-1A84-FB4B-BE4F-888914026B0E}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1423,4 +2001,559 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7DFA1D-49FC-C74A-B7BB-7FCCC89603F5}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E52E39E-9686-854E-94EE-C7434912933E}">
+  <dimension ref="A2:D54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD3671-987D-6D4B-83A6-D4B85ED50302}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91061756-DA7B-7C45-996D-1683A99E6985}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/heima_notes.xlsx
+++ b/heima_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunxie/Documents/github/Knowledge_WareHouse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F8A85F-DDC2-954A-A02B-C630BD9DB16A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3160FCE-7D41-BC45-BC43-A4E47549B5E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="800" windowWidth="24400" windowHeight="15000" activeTab="4" xr2:uid="{DB4E50C3-24C9-3D49-BCDC-8D37EF900FF2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="3" xr2:uid="{DB4E50C3-24C9-3D49-BCDC-8D37EF900FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="02HTML" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="271">
   <si>
     <t>案例驱动型</t>
   </si>
@@ -785,6 +785,69 @@
   </si>
   <si>
     <t>看代码</t>
+  </si>
+  <si>
+    <t>DOM 操作： Document Object Model 管理增删改查规则的</t>
+  </si>
+  <si>
+    <t>定时弹出广告</t>
+  </si>
+  <si>
+    <t>表格的隔行换色</t>
+  </si>
+  <si>
+    <t>全选效果</t>
+  </si>
+  <si>
+    <t>列表的左右选择</t>
+  </si>
+  <si>
+    <t>表单校验（扩展）</t>
+  </si>
+  <si>
+    <t>显示和隐藏</t>
+  </si>
+  <si>
+    <t>img.style.display = "block"</t>
+  </si>
+  <si>
+    <t>img.style.display = "none"</t>
+  </si>
+  <si>
+    <t>JQ开发步骤</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1.导入JQ相关文件</t>
+  </si>
+  <si>
+    <t>2.文档加载完成事件 页面初始化操作，绑定事件，启动页面计时器</t>
+  </si>
+  <si>
+    <t>3.确定相关操作的事件</t>
+  </si>
+  <si>
+    <t>3事件还是要触发函数，函数里面操作相关元素</t>
+  </si>
+  <si>
+    <t>选择器</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>类</t>
+  </si>
+  <si>
+    <t>元素</t>
+  </si>
+  <si>
+    <t>通配符</t>
+  </si>
+  <si>
+    <t>选择器。选择器</t>
   </si>
 </sst>
 </file>
@@ -2280,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E52E39E-9686-854E-94EE-C7434912933E}">
-  <dimension ref="A2:D54"/>
+  <dimension ref="A2:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2498,6 +2561,11 @@
       </c>
       <c r="C54" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2508,12 +2576,113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD3671-987D-6D4B-83A6-D4B85ED50302}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2522,7 +2691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91061756-DA7B-7C45-996D-1683A99E6985}">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/heima_notes.xlsx
+++ b/heima_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunxie/Documents/github/Knowledge_WareHouse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3160FCE-7D41-BC45-BC43-A4E47549B5E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946EAE47-8941-124E-8D37-B9E025F50906}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="3" xr2:uid="{DB4E50C3-24C9-3D49-BCDC-8D37EF900FF2}"/>
+    <workbookView minimized="1" xWindow="980" yWindow="460" windowWidth="24620" windowHeight="15540" activeTab="3" xr2:uid="{DB4E50C3-24C9-3D49-BCDC-8D37EF900FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="02HTML" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="290">
   <si>
     <t>案例驱动型</t>
   </si>
@@ -832,9 +832,6 @@
     <t>3事件还是要触发函数，函数里面操作相关元素</t>
   </si>
   <si>
-    <t>选择器</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -847,7 +844,67 @@
     <t>通配符</t>
   </si>
   <si>
-    <t>选择器。选择器</t>
+    <t>#ID</t>
+  </si>
+  <si>
+    <t>.ClassName</t>
+  </si>
+  <si>
+    <t>tagname</t>
+  </si>
+  <si>
+    <t>* {}</t>
+  </si>
+  <si>
+    <t>选择器,选择器</t>
+  </si>
+  <si>
+    <t>层级选择器：</t>
+  </si>
+  <si>
+    <t>基本选择器</t>
+  </si>
+  <si>
+    <t>子元素选择器 ：</t>
+  </si>
+  <si>
+    <t>选择器1 &gt; 选择器2</t>
+  </si>
+  <si>
+    <t>后代选择器：</t>
+  </si>
+  <si>
+    <t>选择器1 儿孙</t>
+  </si>
+  <si>
+    <t>相邻兄弟选择器：</t>
+  </si>
+  <si>
+    <t>选择器1 + 选择器2: 找出紧挨着的一个弟弟</t>
+  </si>
+  <si>
+    <t>找出所有弟弟：</t>
+  </si>
+  <si>
+    <t>选择器1～选择器2</t>
+  </si>
+  <si>
+    <t>弟弟就是后面的元素</t>
+  </si>
+  <si>
+    <t>JQ中表单属性的过滤</t>
+  </si>
+  <si>
+    <t>选择器 ： 过滤规则</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>所有索引值为偶数的元素，从0开始</t>
   </si>
 </sst>
 </file>
@@ -2576,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD3671-987D-6D4B-83A6-D4B85ED50302}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2652,34 +2709,107 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>270</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
